--- a/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_sample_2.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_sample_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Project link samples Template</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Sample Container Coord</t>
   </si>
   <si>
-    <t>Remove</t>
+    <t>Remove from project</t>
   </si>
   <si>
     <t>ProjectTest3</t>
@@ -62,7 +62,13 @@
     <t>CONTAINER4PROJECTLINKSAMPLES1</t>
   </si>
   <si>
-    <t>Add</t>
+    <t>Add to project and/or study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove from project </t>
+  </si>
+  <si>
+    <t>Remove from study</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -396,7 +402,7 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -408,17 +414,14 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1517,7 +1520,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.2188" style="1" customWidth="1"/>
     <col min="2" max="5" width="22.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="22.3516" style="1" customWidth="1"/>
@@ -1657,7 +1660,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="26"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1674,971 +1677,971 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="28"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="28"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
-      <c r="H27" s="28"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="28"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="28"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
-      <c r="H32" s="28"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
-      <c r="H33" s="28"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
-      <c r="H34" s="28"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="28"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="28"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
-      <c r="H44" s="28"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="28"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="28"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="28"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
-      <c r="H49" s="28"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
-      <c r="H50" s="28"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="28"/>
+      <c r="H51" s="27"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
-      <c r="H52" s="28"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
-      <c r="H53" s="28"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
-      <c r="H54" s="28"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="28"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
-      <c r="H56" s="28"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
-      <c r="H57" s="28"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
-      <c r="H58" s="28"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
-      <c r="H59" s="28"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="28"/>
+      <c r="H60" s="27"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
-      <c r="H61" s="28"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
-      <c r="H62" s="28"/>
+      <c r="H62" s="27"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
-      <c r="H63" s="28"/>
+      <c r="H63" s="27"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
-      <c r="H64" s="28"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
-      <c r="H65" s="28"/>
+      <c r="H65" s="27"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
-      <c r="H66" s="28"/>
+      <c r="H66" s="27"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
       <c r="G67" s="26"/>
-      <c r="H67" s="28"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
-      <c r="H68" s="28"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
-      <c r="H69" s="28"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
-      <c r="H70" s="28"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="23"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
-      <c r="H71" s="28"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
-      <c r="H72" s="28"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
-      <c r="H73" s="28"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
-      <c r="H74" s="28"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
-      <c r="H75" s="28"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
-      <c r="H76" s="28"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
-      <c r="H77" s="28"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="29"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
-      <c r="H78" s="28"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
-      <c r="H79" s="28"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="29"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="28"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="29"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
-      <c r="H81" s="28"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
-      <c r="H82" s="28"/>
+      <c r="H82" s="27"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
-      <c r="H83" s="28"/>
+      <c r="H83" s="27"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
-      <c r="H84" s="28"/>
+      <c r="H84" s="27"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
-      <c r="H85" s="28"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
-      <c r="H86" s="28"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="29"/>
-      <c r="B87" s="23"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
-      <c r="H87" s="28"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
-      <c r="H88" s="28"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
-      <c r="H89" s="28"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
-      <c r="H90" s="28"/>
+      <c r="H90" s="27"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
-      <c r="H91" s="28"/>
+      <c r="H91" s="27"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
-      <c r="H92" s="28"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
-      <c r="H93" s="28"/>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
-      <c r="H94" s="28"/>
+      <c r="H94" s="27"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
-      <c r="H95" s="28"/>
+      <c r="H95" s="27"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
-      <c r="H96" s="28"/>
+      <c r="H96" s="27"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="29"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
-      <c r="H97" s="28"/>
+      <c r="H97" s="27"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
-      <c r="H98" s="28"/>
+      <c r="H98" s="27"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
-      <c r="H99" s="28"/>
+      <c r="H99" s="27"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
-      <c r="H100" s="28"/>
+      <c r="H100" s="27"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
       <c r="G101" s="26"/>
-      <c r="H101" s="28"/>
+      <c r="H101" s="27"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="29"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
-      <c r="H102" s="28"/>
+      <c r="H102" s="27"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="29"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
-      <c r="H103" s="28"/>
+      <c r="H103" s="27"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="29"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
       <c r="F104" s="26"/>
       <c r="G104" s="26"/>
-      <c r="H104" s="28"/>
+      <c r="H104" s="27"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="29"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="26"/>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
-      <c r="H105" s="28"/>
+      <c r="H105" s="27"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="29"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="29"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="29"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -2647,8 +2650,8 @@
       <c r="H109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="29"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -2657,8 +2660,8 @@
       <c r="H110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="30"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -2667,8 +2670,8 @@
       <c r="H111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="29"/>
-      <c r="B112" s="30"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -2677,8 +2680,8 @@
       <c r="H112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="29"/>
-      <c r="B113" s="30"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -2687,8 +2690,8 @@
       <c r="H113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -2697,8 +2700,8 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="29"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -2707,8 +2710,8 @@
       <c r="H115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -2717,8 +2720,8 @@
       <c r="H116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -2727,8 +2730,8 @@
       <c r="H117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="29"/>
-      <c r="B118" s="30"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -2737,8 +2740,8 @@
       <c r="H118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="29"/>
-      <c r="B119" s="30"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -2747,8 +2750,8 @@
       <c r="H119" s="4"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="30"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -2757,8 +2760,8 @@
       <c r="H120" s="4"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="30"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -2767,8 +2770,8 @@
       <c r="H121" s="4"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="29"/>
-      <c r="B122" s="30"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -2777,8 +2780,8 @@
       <c r="H122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="29"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -2787,8 +2790,8 @@
       <c r="H123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="30"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -2797,8 +2800,8 @@
       <c r="H124" s="4"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="29"/>
-      <c r="B125" s="30"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -2807,8 +2810,8 @@
       <c r="H125" s="4"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="29"/>
-      <c r="B126" s="30"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -2817,8 +2820,8 @@
       <c r="H126" s="4"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="29"/>
-      <c r="B127" s="30"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -2827,8 +2830,8 @@
       <c r="H127" s="4"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="29"/>
-      <c r="B128" s="30"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -2837,8 +2840,8 @@
       <c r="H128" s="4"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="29"/>
-      <c r="B129" s="30"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -2847,8 +2850,8 @@
       <c r="H129" s="4"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="29"/>
-      <c r="B130" s="30"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -2857,8 +2860,8 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="29"/>
-      <c r="B131" s="30"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -2867,8 +2870,8 @@
       <c r="H131" s="4"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="29"/>
-      <c r="B132" s="30"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -2877,8 +2880,8 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -2887,8 +2890,8 @@
       <c r="H133" s="4"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="29"/>
-      <c r="B134" s="30"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -2897,8 +2900,8 @@
       <c r="H134" s="4"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="29"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -2907,8 +2910,8 @@
       <c r="H135" s="4"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="29"/>
-      <c r="B136" s="30"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -2917,8 +2920,8 @@
       <c r="H136" s="4"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="29"/>
-      <c r="B137" s="30"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -2927,8 +2930,8 @@
       <c r="H137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="29"/>
-      <c r="B138" s="30"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -2937,8 +2940,8 @@
       <c r="H138" s="4"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="29"/>
-      <c r="B139" s="30"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -2947,8 +2950,8 @@
       <c r="H139" s="4"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -2957,8 +2960,8 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="29"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -2967,8 +2970,8 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="29"/>
-      <c r="B142" s="30"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -2977,8 +2980,8 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="29"/>
-      <c r="B143" s="30"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -2987,8 +2990,8 @@
       <c r="H143" s="4"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="29"/>
-      <c r="B144" s="30"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -2997,8 +3000,8 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -3007,8 +3010,8 @@
       <c r="H145" s="4"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="29"/>
-      <c r="B146" s="30"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -3017,8 +3020,8 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="29"/>
-      <c r="B147" s="30"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -3027,8 +3030,8 @@
       <c r="H147" s="4"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="29"/>
-      <c r="B148" s="30"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -3037,8 +3040,8 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="29"/>
-      <c r="B149" s="30"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -3047,8 +3050,8 @@
       <c r="H149" s="4"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="29"/>
-      <c r="B150" s="30"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -3057,8 +3060,8 @@
       <c r="H150" s="4"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="29"/>
-      <c r="B151" s="30"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="23"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -3067,8 +3070,8 @@
       <c r="H151" s="4"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -3077,8 +3080,8 @@
       <c r="H152" s="4"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="29"/>
-      <c r="B153" s="30"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -3087,8 +3090,8 @@
       <c r="H153" s="4"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="29"/>
-      <c r="B154" s="30"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="29"/>
-      <c r="B155" s="30"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="29"/>
-      <c r="B156" s="30"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -3118,7 +3121,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="29"/>
-      <c r="B157" s="30"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -3128,7 +3131,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="29"/>
-      <c r="B158" s="30"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="29"/>
-      <c r="B159" s="30"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -3148,7 +3151,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="29"/>
-      <c r="B160" s="30"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -3158,7 +3161,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="29"/>
-      <c r="B161" s="30"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="29"/>
-      <c r="B162" s="30"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="29"/>
-      <c r="B163" s="30"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -3188,7 +3191,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="29"/>
-      <c r="B164" s="30"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="29"/>
-      <c r="B165" s="30"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -3208,7 +3211,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="29"/>
-      <c r="B166" s="30"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="29"/>
-      <c r="B167" s="30"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="29"/>
-      <c r="B168" s="30"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="29"/>
-      <c r="B169" s="30"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="29"/>
-      <c r="B170" s="30"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -3258,7 +3261,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="29"/>
-      <c r="B171" s="30"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -3268,7 +3271,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="29"/>
-      <c r="B172" s="30"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -3278,7 +3281,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="29"/>
-      <c r="B173" s="30"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="29"/>
-      <c r="B174" s="30"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="29"/>
-      <c r="B175" s="30"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="29"/>
-      <c r="B176" s="30"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="29"/>
-      <c r="B177" s="30"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -3328,7 +3331,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="29"/>
-      <c r="B178" s="30"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="29"/>
-      <c r="B179" s="30"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -3348,7 +3351,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="29"/>
-      <c r="B180" s="30"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -3358,7 +3361,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="29"/>
-      <c r="B181" s="30"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -3368,7 +3371,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="29"/>
-      <c r="B182" s="30"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -3378,7 +3381,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="29"/>
-      <c r="B183" s="30"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="29"/>
-      <c r="B184" s="30"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -3398,7 +3401,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="29"/>
-      <c r="B185" s="30"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -3408,7 +3411,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="29"/>
-      <c r="B186" s="30"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="29"/>
-      <c r="B187" s="30"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -3428,7 +3431,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="29"/>
-      <c r="B188" s="30"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="29"/>
-      <c r="B189" s="30"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -3448,7 +3451,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="29"/>
-      <c r="B190" s="30"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -3458,7 +3461,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="29"/>
-      <c r="B191" s="30"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -3468,7 +3471,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="29"/>
-      <c r="B192" s="30"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -3478,7 +3481,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="29"/>
-      <c r="B193" s="30"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -3488,7 +3491,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="29"/>
-      <c r="B194" s="30"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -3498,7 +3501,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="29"/>
-      <c r="B195" s="30"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -3508,7 +3511,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="29"/>
-      <c r="B196" s="30"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -3518,7 +3521,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="29"/>
-      <c r="B197" s="30"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -3528,7 +3531,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="29"/>
-      <c r="B198" s="30"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -3538,7 +3541,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="29"/>
-      <c r="B199" s="30"/>
+      <c r="B199" s="23"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -3548,7 +3551,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="29"/>
-      <c r="B200" s="30"/>
+      <c r="B200" s="23"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="29"/>
-      <c r="B201" s="30"/>
+      <c r="B201" s="23"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -3568,7 +3571,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="29"/>
-      <c r="B202" s="30"/>
+      <c r="B202" s="23"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="29"/>
-      <c r="B203" s="30"/>
+      <c r="B203" s="23"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -3588,7 +3591,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="29"/>
-      <c r="B204" s="30"/>
+      <c r="B204" s="23"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -3598,7 +3601,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="29"/>
-      <c r="B205" s="30"/>
+      <c r="B205" s="23"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -3608,7 +3611,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="29"/>
-      <c r="B206" s="30"/>
+      <c r="B206" s="23"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -3618,7 +3621,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="29"/>
-      <c r="B207" s="30"/>
+      <c r="B207" s="23"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -3628,7 +3631,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="29"/>
-      <c r="B208" s="30"/>
+      <c r="B208" s="23"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="29"/>
-      <c r="B209" s="30"/>
+      <c r="B209" s="23"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -3648,7 +3651,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="29"/>
-      <c r="B210" s="30"/>
+      <c r="B210" s="23"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="29"/>
-      <c r="B211" s="30"/>
+      <c r="B211" s="23"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -3668,7 +3671,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="29"/>
-      <c r="B212" s="30"/>
+      <c r="B212" s="23"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -3678,7 +3681,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="29"/>
-      <c r="B213" s="30"/>
+      <c r="B213" s="23"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -3688,7 +3691,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="29"/>
-      <c r="B214" s="30"/>
+      <c r="B214" s="23"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="29"/>
-      <c r="B215" s="30"/>
+      <c r="B215" s="23"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -3708,7 +3711,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="29"/>
-      <c r="B216" s="30"/>
+      <c r="B216" s="23"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -3718,7 +3721,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="29"/>
-      <c r="B217" s="30"/>
+      <c r="B217" s="23"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -3728,7 +3731,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="29"/>
-      <c r="B218" s="30"/>
+      <c r="B218" s="23"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="29"/>
-      <c r="B219" s="30"/>
+      <c r="B219" s="23"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="29"/>
-      <c r="B220" s="30"/>
+      <c r="B220" s="23"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -4627,8 +4630,11 @@
       <c r="H307" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A13:A307">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A154">
+      <formula1>",Add to project and/or study,Remove from project,Remove from study"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A155:A307">
       <formula1>"Add,Remove"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4648,13 +4654,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="31" customWidth="1"/>
-    <col min="2" max="5" width="9.35156" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
+    <col min="1" max="1" width="23.6953" style="30" customWidth="1"/>
+    <col min="2" max="5" width="9.35156" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="32">
+      <c r="A1" t="s" s="31">
         <v>5</v>
       </c>
       <c r="B1" s="4"/>
@@ -4673,7 +4679,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4681,91 +4687,93 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="28"/>
+      <c r="A4" t="s" s="26">
+        <v>18</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>

--- a/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_sample_2.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Project_link_samples_v4_0_0_invalid_sample_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Project link samples Template</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Study</t>
   </si>
   <si>
-    <t>Workflow Step Start</t>
+    <t>Workflow Step Order</t>
   </si>
   <si>
     <t>Sample Name</t>
@@ -62,7 +62,10 @@
     <t>CONTAINER4PROJECTLINKSAMPLES1</t>
   </si>
   <si>
-    <t>Add to project and/or study</t>
+    <t>Add to project</t>
+  </si>
+  <si>
+    <t>Add to study</t>
   </si>
   <si>
     <t xml:space="preserve">Remove from project </t>
@@ -332,7 +335,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -419,9 +422,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1520,7 +1520,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.2188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
     <col min="2" max="5" width="22.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="22.3516" style="1" customWidth="1"/>
@@ -3100,7 +3100,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="29"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="23"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -3110,7 +3110,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="29"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="23"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -3120,7 +3120,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="29"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="23"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -3130,7 +3130,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="29"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="23"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -3140,7 +3140,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="29"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="23"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -3150,7 +3150,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="29"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="23"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -3160,7 +3160,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="29"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="23"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -3170,7 +3170,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="29"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="23"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -3180,7 +3180,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="29"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="23"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -3190,7 +3190,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="29"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="23"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -3200,7 +3200,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="29"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="23"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -3210,7 +3210,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="29"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="23"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -3220,7 +3220,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="29"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="23"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -3230,7 +3230,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="29"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="23"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -3240,7 +3240,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="29"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="23"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -3250,7 +3250,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="29"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="23"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -3260,7 +3260,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="29"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="23"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -3270,7 +3270,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="29"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="23"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -3280,7 +3280,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="29"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="23"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -3290,7 +3290,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="29"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="23"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -3300,7 +3300,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="29"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="23"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -3310,7 +3310,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="29"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="23"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -3320,7 +3320,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="29"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="23"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -3330,7 +3330,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="29"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="23"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -3340,7 +3340,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="29"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="23"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -3350,7 +3350,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="29"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="23"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -3360,7 +3360,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="29"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="23"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -3370,7 +3370,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="29"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="23"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -3380,7 +3380,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="29"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="23"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -3390,7 +3390,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="29"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="23"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -3400,7 +3400,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="29"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="23"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -3410,7 +3410,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="29"/>
+      <c r="A186" s="23"/>
       <c r="B186" s="23"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -3420,7 +3420,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="29"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="23"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -3430,7 +3430,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="29"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="23"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -3440,7 +3440,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="29"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="23"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -3450,7 +3450,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="29"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="23"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -3460,7 +3460,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="29"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="23"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -3470,7 +3470,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="29"/>
+      <c r="A192" s="23"/>
       <c r="B192" s="23"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -3480,7 +3480,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="29"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="23"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -3490,7 +3490,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="29"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="23"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -3500,7 +3500,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="29"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="23"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -3510,7 +3510,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="29"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="23"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -3520,7 +3520,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="29"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="23"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -3530,7 +3530,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="29"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="23"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -3540,7 +3540,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="29"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="23"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -3550,7 +3550,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="29"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="23"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -3560,7 +3560,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="29"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="23"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -3570,7 +3570,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="29"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="23"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -3580,7 +3580,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="29"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="23"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -3590,7 +3590,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="29"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="23"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -3600,7 +3600,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="29"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="23"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -3610,7 +3610,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="29"/>
+      <c r="A206" s="23"/>
       <c r="B206" s="23"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -3620,7 +3620,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="29"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="23"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -3630,7 +3630,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="29"/>
+      <c r="A208" s="23"/>
       <c r="B208" s="23"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -3640,7 +3640,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="29"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="23"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -3650,7 +3650,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="29"/>
+      <c r="A210" s="23"/>
       <c r="B210" s="23"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -3660,7 +3660,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="29"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="23"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -3670,7 +3670,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="29"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="23"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -3680,7 +3680,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="29"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="23"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -3690,7 +3690,7 @@
       <c r="H213" s="4"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="29"/>
+      <c r="A214" s="23"/>
       <c r="B214" s="23"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -3700,7 +3700,7 @@
       <c r="H214" s="4"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="29"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="23"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -3710,7 +3710,7 @@
       <c r="H215" s="4"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="29"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="23"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -3720,7 +3720,7 @@
       <c r="H216" s="4"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="29"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="23"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -3730,7 +3730,7 @@
       <c r="H217" s="4"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="29"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="23"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -3740,7 +3740,7 @@
       <c r="H218" s="4"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="29"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="23"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -3750,7 +3750,7 @@
       <c r="H219" s="4"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="29"/>
+      <c r="A220" s="23"/>
       <c r="B220" s="23"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -3760,7 +3760,7 @@
       <c r="H220" s="4"/>
     </row>
     <row r="221" ht="13.5" customHeight="1">
-      <c r="A221" s="4"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -3770,7 +3770,7 @@
       <c r="H221" s="4"/>
     </row>
     <row r="222" ht="13.5" customHeight="1">
-      <c r="A222" s="4"/>
+      <c r="A222" s="23"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -3780,7 +3780,7 @@
       <c r="H222" s="4"/>
     </row>
     <row r="223" ht="13.5" customHeight="1">
-      <c r="A223" s="4"/>
+      <c r="A223" s="23"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -3790,7 +3790,7 @@
       <c r="H223" s="4"/>
     </row>
     <row r="224" ht="13.5" customHeight="1">
-      <c r="A224" s="4"/>
+      <c r="A224" s="23"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -3800,7 +3800,7 @@
       <c r="H224" s="4"/>
     </row>
     <row r="225" ht="13.5" customHeight="1">
-      <c r="A225" s="4"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -3810,7 +3810,7 @@
       <c r="H225" s="4"/>
     </row>
     <row r="226" ht="13.5" customHeight="1">
-      <c r="A226" s="4"/>
+      <c r="A226" s="23"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -3820,7 +3820,7 @@
       <c r="H226" s="4"/>
     </row>
     <row r="227" ht="13.5" customHeight="1">
-      <c r="A227" s="4"/>
+      <c r="A227" s="23"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -3830,7 +3830,7 @@
       <c r="H227" s="4"/>
     </row>
     <row r="228" ht="13.5" customHeight="1">
-      <c r="A228" s="4"/>
+      <c r="A228" s="23"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -3840,7 +3840,7 @@
       <c r="H228" s="4"/>
     </row>
     <row r="229" ht="13.5" customHeight="1">
-      <c r="A229" s="4"/>
+      <c r="A229" s="23"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -3850,7 +3850,7 @@
       <c r="H229" s="4"/>
     </row>
     <row r="230" ht="13.5" customHeight="1">
-      <c r="A230" s="4"/>
+      <c r="A230" s="23"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -3860,7 +3860,7 @@
       <c r="H230" s="4"/>
     </row>
     <row r="231" ht="13.5" customHeight="1">
-      <c r="A231" s="4"/>
+      <c r="A231" s="23"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -3870,7 +3870,7 @@
       <c r="H231" s="4"/>
     </row>
     <row r="232" ht="13.5" customHeight="1">
-      <c r="A232" s="4"/>
+      <c r="A232" s="23"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -3880,7 +3880,7 @@
       <c r="H232" s="4"/>
     </row>
     <row r="233" ht="13.5" customHeight="1">
-      <c r="A233" s="4"/>
+      <c r="A233" s="23"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -3890,7 +3890,7 @@
       <c r="H233" s="4"/>
     </row>
     <row r="234" ht="13.5" customHeight="1">
-      <c r="A234" s="4"/>
+      <c r="A234" s="23"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -3900,7 +3900,7 @@
       <c r="H234" s="4"/>
     </row>
     <row r="235" ht="13.5" customHeight="1">
-      <c r="A235" s="4"/>
+      <c r="A235" s="23"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -3910,7 +3910,7 @@
       <c r="H235" s="4"/>
     </row>
     <row r="236" ht="13.5" customHeight="1">
-      <c r="A236" s="4"/>
+      <c r="A236" s="23"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -3920,7 +3920,7 @@
       <c r="H236" s="4"/>
     </row>
     <row r="237" ht="13.5" customHeight="1">
-      <c r="A237" s="4"/>
+      <c r="A237" s="23"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -3930,7 +3930,7 @@
       <c r="H237" s="4"/>
     </row>
     <row r="238" ht="13.5" customHeight="1">
-      <c r="A238" s="4"/>
+      <c r="A238" s="23"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -3940,7 +3940,7 @@
       <c r="H238" s="4"/>
     </row>
     <row r="239" ht="13.5" customHeight="1">
-      <c r="A239" s="4"/>
+      <c r="A239" s="23"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -3950,7 +3950,7 @@
       <c r="H239" s="4"/>
     </row>
     <row r="240" ht="13.5" customHeight="1">
-      <c r="A240" s="4"/>
+      <c r="A240" s="23"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -3960,7 +3960,7 @@
       <c r="H240" s="4"/>
     </row>
     <row r="241" ht="13.5" customHeight="1">
-      <c r="A241" s="4"/>
+      <c r="A241" s="23"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -3970,7 +3970,7 @@
       <c r="H241" s="4"/>
     </row>
     <row r="242" ht="13.5" customHeight="1">
-      <c r="A242" s="4"/>
+      <c r="A242" s="23"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -3980,7 +3980,7 @@
       <c r="H242" s="4"/>
     </row>
     <row r="243" ht="13.5" customHeight="1">
-      <c r="A243" s="4"/>
+      <c r="A243" s="23"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -3990,7 +3990,7 @@
       <c r="H243" s="4"/>
     </row>
     <row r="244" ht="13.5" customHeight="1">
-      <c r="A244" s="4"/>
+      <c r="A244" s="23"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -4000,7 +4000,7 @@
       <c r="H244" s="4"/>
     </row>
     <row r="245" ht="13.5" customHeight="1">
-      <c r="A245" s="4"/>
+      <c r="A245" s="23"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -4010,7 +4010,7 @@
       <c r="H245" s="4"/>
     </row>
     <row r="246" ht="13.5" customHeight="1">
-      <c r="A246" s="4"/>
+      <c r="A246" s="23"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4020,7 +4020,7 @@
       <c r="H246" s="4"/>
     </row>
     <row r="247" ht="13.5" customHeight="1">
-      <c r="A247" s="4"/>
+      <c r="A247" s="23"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4030,7 +4030,7 @@
       <c r="H247" s="4"/>
     </row>
     <row r="248" ht="13.5" customHeight="1">
-      <c r="A248" s="4"/>
+      <c r="A248" s="23"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4040,7 +4040,7 @@
       <c r="H248" s="4"/>
     </row>
     <row r="249" ht="13.5" customHeight="1">
-      <c r="A249" s="4"/>
+      <c r="A249" s="23"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4050,7 +4050,7 @@
       <c r="H249" s="4"/>
     </row>
     <row r="250" ht="13.5" customHeight="1">
-      <c r="A250" s="4"/>
+      <c r="A250" s="23"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4060,7 +4060,7 @@
       <c r="H250" s="4"/>
     </row>
     <row r="251" ht="13.5" customHeight="1">
-      <c r="A251" s="4"/>
+      <c r="A251" s="23"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4070,7 +4070,7 @@
       <c r="H251" s="4"/>
     </row>
     <row r="252" ht="13.5" customHeight="1">
-      <c r="A252" s="4"/>
+      <c r="A252" s="23"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4080,7 +4080,7 @@
       <c r="H252" s="4"/>
     </row>
     <row r="253" ht="13.5" customHeight="1">
-      <c r="A253" s="4"/>
+      <c r="A253" s="23"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4090,7 +4090,7 @@
       <c r="H253" s="4"/>
     </row>
     <row r="254" ht="13.5" customHeight="1">
-      <c r="A254" s="4"/>
+      <c r="A254" s="23"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4100,7 +4100,7 @@
       <c r="H254" s="4"/>
     </row>
     <row r="255" ht="13.5" customHeight="1">
-      <c r="A255" s="4"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4110,7 +4110,7 @@
       <c r="H255" s="4"/>
     </row>
     <row r="256" ht="13.5" customHeight="1">
-      <c r="A256" s="4"/>
+      <c r="A256" s="23"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4120,7 +4120,7 @@
       <c r="H256" s="4"/>
     </row>
     <row r="257" ht="13.5" customHeight="1">
-      <c r="A257" s="4"/>
+      <c r="A257" s="23"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4130,7 +4130,7 @@
       <c r="H257" s="4"/>
     </row>
     <row r="258" ht="13.5" customHeight="1">
-      <c r="A258" s="4"/>
+      <c r="A258" s="23"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4140,7 +4140,7 @@
       <c r="H258" s="4"/>
     </row>
     <row r="259" ht="13.5" customHeight="1">
-      <c r="A259" s="4"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4150,7 +4150,7 @@
       <c r="H259" s="4"/>
     </row>
     <row r="260" ht="13.5" customHeight="1">
-      <c r="A260" s="4"/>
+      <c r="A260" s="23"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4160,7 +4160,7 @@
       <c r="H260" s="4"/>
     </row>
     <row r="261" ht="13.5" customHeight="1">
-      <c r="A261" s="4"/>
+      <c r="A261" s="23"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4170,7 +4170,7 @@
       <c r="H261" s="4"/>
     </row>
     <row r="262" ht="13.5" customHeight="1">
-      <c r="A262" s="4"/>
+      <c r="A262" s="23"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4180,7 +4180,7 @@
       <c r="H262" s="4"/>
     </row>
     <row r="263" ht="13.5" customHeight="1">
-      <c r="A263" s="4"/>
+      <c r="A263" s="23"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4190,7 +4190,7 @@
       <c r="H263" s="4"/>
     </row>
     <row r="264" ht="13.5" customHeight="1">
-      <c r="A264" s="4"/>
+      <c r="A264" s="23"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4200,7 +4200,7 @@
       <c r="H264" s="4"/>
     </row>
     <row r="265" ht="13.5" customHeight="1">
-      <c r="A265" s="4"/>
+      <c r="A265" s="23"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4210,7 +4210,7 @@
       <c r="H265" s="4"/>
     </row>
     <row r="266" ht="13.5" customHeight="1">
-      <c r="A266" s="4"/>
+      <c r="A266" s="23"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4220,7 +4220,7 @@
       <c r="H266" s="4"/>
     </row>
     <row r="267" ht="13.5" customHeight="1">
-      <c r="A267" s="4"/>
+      <c r="A267" s="23"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4230,7 +4230,7 @@
       <c r="H267" s="4"/>
     </row>
     <row r="268" ht="13.5" customHeight="1">
-      <c r="A268" s="4"/>
+      <c r="A268" s="23"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4240,7 +4240,7 @@
       <c r="H268" s="4"/>
     </row>
     <row r="269" ht="13.5" customHeight="1">
-      <c r="A269" s="4"/>
+      <c r="A269" s="23"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4250,7 +4250,7 @@
       <c r="H269" s="4"/>
     </row>
     <row r="270" ht="13.5" customHeight="1">
-      <c r="A270" s="4"/>
+      <c r="A270" s="23"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4260,7 +4260,7 @@
       <c r="H270" s="4"/>
     </row>
     <row r="271" ht="13.5" customHeight="1">
-      <c r="A271" s="4"/>
+      <c r="A271" s="23"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4631,10 +4631,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A154">
-      <formula1>",Add to project and/or study,Remove from project,Remove from study"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A271">
+      <formula1>",Add to project,Add to study,Remove from project,Remove from study"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A155:A307">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A272:A307">
       <formula1>"Add,Remove"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4648,19 +4648,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.6953" style="30" customWidth="1"/>
-    <col min="2" max="5" width="9.35156" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="30" customWidth="1"/>
+    <col min="1" max="1" width="23.6719" style="29" customWidth="1"/>
+    <col min="2" max="5" width="9.35156" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="31">
+      <c r="A1" t="s" s="30">
         <v>5</v>
       </c>
       <c r="B1" s="4"/>
@@ -4696,7 +4696,9 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" t="s" s="26">
+        <v>19</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4765,19 +4767,26 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
